--- a/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3400</v>
+        <v>3437</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16567</v>
+        <v>15410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02841421544194559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01245310463340385</v>
+        <v>0.01258748059610459</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0606813957395525</v>
+        <v>0.05644490333279374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6194</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2135</v>
+        <v>2075</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12417</v>
+        <v>12514</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02374483693322732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008185035509594214</v>
+        <v>0.007954914530569056</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04760342599646877</v>
+        <v>0.04797789721245916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>13951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8086</v>
+        <v>8153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23711</v>
+        <v>23832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02613275759987124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01514640937787193</v>
+        <v>0.01527154272514072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04441573146198954</v>
+        <v>0.04464231151665673</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>265253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256443</v>
+        <v>257600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269610</v>
+        <v>269573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9715857845580544</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9393186042604477</v>
+        <v>0.9435550966672068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875468953665961</v>
+        <v>0.9874125194038955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -836,19 +836,19 @@
         <v>254644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248421</v>
+        <v>248324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258703</v>
+        <v>258763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9762551630667727</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9523965740035312</v>
+        <v>0.9520221027875407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9918149644904058</v>
+        <v>0.9920450854694309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>503</v>
@@ -857,19 +857,19 @@
         <v>519897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>510137</v>
+        <v>510016</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>525762</v>
+        <v>525695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9738672424001288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9555842685380105</v>
+        <v>0.9553576884833435</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9848535906221281</v>
+        <v>0.9847284572748594</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>38579</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28224</v>
+        <v>27115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52572</v>
+        <v>53494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07824185319772474</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05724161126689344</v>
+        <v>0.05499218556607383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1066200964502787</v>
+        <v>0.1084913520612904</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -982,19 +982,19 @@
         <v>39112</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28061</v>
+        <v>28235</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52019</v>
+        <v>52192</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07761200025885644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05568220528435055</v>
+        <v>0.05602651564316061</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1032228068033216</v>
+        <v>0.1035669797147059</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -1003,19 +1003,19 @@
         <v>77692</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61161</v>
+        <v>62036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97781</v>
+        <v>96381</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07792349201236358</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06134361190942887</v>
+        <v>0.06222119718406376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0980724444477267</v>
+        <v>0.09666865448375576</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>454496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>440503</v>
+        <v>439581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464851</v>
+        <v>465960</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9217581468022753</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8933799035497215</v>
+        <v>0.8915086479387094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9427583887331067</v>
+        <v>0.9450078144339257</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -1053,19 +1053,19 @@
         <v>464837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>451930</v>
+        <v>451757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475888</v>
+        <v>475714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9223879997411436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8967771931966785</v>
+        <v>0.896433020285294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9443177947156495</v>
+        <v>0.9439734843568394</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -1074,19 +1074,19 @@
         <v>919332</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>899243</v>
+        <v>900643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>935863</v>
+        <v>934988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9220765079876364</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9019275555522732</v>
+        <v>0.9033313455162443</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9386563880905711</v>
+        <v>0.9377788028159363</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2913</v>
+        <v>2988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13093</v>
+        <v>13265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02170972624777782</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009134615297586961</v>
+        <v>0.009371651216090762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04106505870101401</v>
+        <v>0.04160329934601472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1199,19 +1199,19 @@
         <v>9560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4634</v>
+        <v>4981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17166</v>
+        <v>17783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02850184121714449</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01381495829118292</v>
+        <v>0.01484973010694557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05117848057510017</v>
+        <v>0.05301820721931264</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>16482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10125</v>
+        <v>9301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25769</v>
+        <v>25751</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02519177336156706</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01547553778990817</v>
+        <v>0.01421686058884321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03938694173269511</v>
+        <v>0.03935919747965068</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>311924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305753</v>
+        <v>305581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315933</v>
+        <v>315858</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782902737522222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.958934941298986</v>
+        <v>0.9583967006539853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.990865384702413</v>
+        <v>0.9906283487839093</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -1270,19 +1270,19 @@
         <v>325852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318246</v>
+        <v>317629</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330778</v>
+        <v>330431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9714981587828555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9488215194248992</v>
+        <v>0.9469817927806874</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9861850417088169</v>
+        <v>0.9851502698930545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -1291,19 +1291,19 @@
         <v>637776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628489</v>
+        <v>628507</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644133</v>
+        <v>644957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9748082266384329</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9606130582673048</v>
+        <v>0.96064080252035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845244622100918</v>
+        <v>0.9857831394111568</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8246</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3829</v>
+        <v>4315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15440</v>
+        <v>15033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02299164070402423</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0106757084295973</v>
+        <v>0.01203029018767033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04304750475457403</v>
+        <v>0.04191391672808534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>18694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11699</v>
+        <v>11803</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28204</v>
+        <v>28247</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05032733995863077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03149422576762863</v>
+        <v>0.03177540783307409</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07592902909625211</v>
+        <v>0.07604448171949137</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>26941</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18311</v>
+        <v>18409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37881</v>
+        <v>38738</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03689882051684538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02507974502880938</v>
+        <v>0.02521296954775833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05188221670252002</v>
+        <v>0.05305681790010769</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>350425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>343231</v>
+        <v>343638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354842</v>
+        <v>354356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9770083592959757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9569524952454261</v>
+        <v>0.9580860832719149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9893242915704027</v>
+        <v>0.9879697098123303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>365</v>
@@ -1487,19 +1487,19 @@
         <v>352762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>343252</v>
+        <v>343209</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359757</v>
+        <v>359653</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9496726600413692</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.924070970903748</v>
+        <v>0.9239555182805087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9685057742323714</v>
+        <v>0.968224592166926</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>718</v>
@@ -1508,19 +1508,19 @@
         <v>703186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>692246</v>
+        <v>691389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711816</v>
+        <v>711718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9631011794831547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.94811778329748</v>
+        <v>0.9469431820998924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9749202549711905</v>
+        <v>0.9747870304522416</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16585</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10469</v>
+        <v>9924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25414</v>
+        <v>25144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08157511320066817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05149356667795696</v>
+        <v>0.04881392122184019</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1250034574363778</v>
+        <v>0.1236747273273224</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>20724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13927</v>
+        <v>12715</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30905</v>
+        <v>31132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09979586642293621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06706513571605048</v>
+        <v>0.06122898548992129</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1488207326756346</v>
+        <v>0.1499109220216912</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>37</v>
@@ -1654,19 +1654,19 @@
         <v>37309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26487</v>
+        <v>27278</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49923</v>
+        <v>51164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09078213978289894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06444936552316574</v>
+        <v>0.06637406820523475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1214731093995682</v>
+        <v>0.1244933178124636</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>186723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177894</v>
+        <v>178164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192839</v>
+        <v>193384</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9184248867993319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.874996542563622</v>
+        <v>0.8763252726726775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.948506433322043</v>
+        <v>0.9511860787781597</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>179</v>
@@ -1704,19 +1704,19 @@
         <v>186944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>176763</v>
+        <v>176536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193741</v>
+        <v>194953</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9002041335770637</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8511792673243657</v>
+        <v>0.8500890779783087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9329348642839497</v>
+        <v>0.9387710145100787</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -1725,19 +1725,19 @@
         <v>373667</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361053</v>
+        <v>359812</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384489</v>
+        <v>383698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.909217860217101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8785268906004319</v>
+        <v>0.8755066821875365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9355506344768343</v>
+        <v>0.9336259317947653</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6743</v>
+        <v>6734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007131600746355451</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02489945663383085</v>
+        <v>0.02486452820484046</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1850,19 +1850,19 @@
         <v>7230</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3024</v>
+        <v>3121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14484</v>
+        <v>14829</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0259945302572396</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01087313382693486</v>
+        <v>0.0112210993150779</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05207205015081564</v>
+        <v>0.05331445845411028</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1871,19 +1871,19 @@
         <v>9162</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4504</v>
+        <v>4576</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17952</v>
+        <v>16765</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01668905195395759</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008205234467349672</v>
+        <v>0.008335531037085921</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0327026977153595</v>
+        <v>0.03053984839970859</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>268880</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>264068</v>
+        <v>264077</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9928683992536446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9751005433661691</v>
+        <v>0.9751354717951595</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>270914</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263660</v>
+        <v>263315</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275120</v>
+        <v>275023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9740054697427604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9479279498491838</v>
+        <v>0.9466855415458898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9891268661730651</v>
+        <v>0.9887789006849221</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>527</v>
@@ -1942,19 +1942,19 @@
         <v>539793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531003</v>
+        <v>532190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>544451</v>
+        <v>544379</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9833109480460425</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9672973022846399</v>
+        <v>0.969460151600291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9917947655326492</v>
+        <v>0.9916644689629139</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>34608</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24559</v>
+        <v>24491</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48117</v>
+        <v>47323</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05627068280228584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03993085736394678</v>
+        <v>0.03982089422367472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07823625802182307</v>
+        <v>0.07694436004863246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2067,19 +2067,19 @@
         <v>36457</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25792</v>
+        <v>25597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50761</v>
+        <v>51123</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05712328610160168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04041258328327893</v>
+        <v>0.04010668417528614</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07953517619824034</v>
+        <v>0.08010335780493463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -2088,19 +2088,19 @@
         <v>71065</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56495</v>
+        <v>55588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90694</v>
+        <v>90042</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05670487340767365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04507885381582914</v>
+        <v>0.04435517417154816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07236720008518169</v>
+        <v>0.07184717150386884</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>580419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566910</v>
+        <v>567704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>590468</v>
+        <v>590536</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9437293171977141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9217637419781766</v>
+        <v>0.9230556399513669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9600691426360526</v>
+        <v>0.9601791057763244</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>588</v>
@@ -2138,19 +2138,19 @@
         <v>601762</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>587458</v>
+        <v>587096</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>612427</v>
+        <v>612622</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9428767138983983</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9204648238017599</v>
+        <v>0.9198966421950656</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9595874167167211</v>
+        <v>0.9598933158247139</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1151</v>
@@ -2159,19 +2159,19 @@
         <v>1182181</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1162552</v>
+        <v>1163204</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1196751</v>
+        <v>1197658</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9432951265923264</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9276327999148182</v>
+        <v>0.9281528284961311</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9549211461841708</v>
+        <v>0.9556448258284517</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>48982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36702</v>
+        <v>35910</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63054</v>
+        <v>64087</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0658535688236455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04934472618691364</v>
+        <v>0.0482790303117139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08477319106699541</v>
+        <v>0.08616199303685219</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>68</v>
@@ -2284,19 +2284,19 @@
         <v>73557</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>56633</v>
+        <v>57641</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91801</v>
+        <v>92382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09388162254387886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07228165819142489</v>
+        <v>0.07356786380888304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1171658746814688</v>
+        <v>0.117907152095876</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>117</v>
@@ -2305,19 +2305,19 @@
         <v>122539</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101789</v>
+        <v>102888</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145270</v>
+        <v>145314</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08023201544570153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0666459310507499</v>
+        <v>0.0673658020672884</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0951149323353688</v>
+        <v>0.09514418773189376</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>694813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>680741</v>
+        <v>679708</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>707093</v>
+        <v>707885</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9341464311763545</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9152268089330046</v>
+        <v>0.9138380069631479</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9506552738130863</v>
+        <v>0.9517209696882863</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>677</v>
@@ -2355,19 +2355,19 @@
         <v>709954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>691710</v>
+        <v>691129</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>726878</v>
+        <v>725870</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9061183774561211</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8828341253185312</v>
+        <v>0.8820928479041239</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.927718341808575</v>
+        <v>0.926432136191117</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1364</v>
@@ -2376,19 +2376,19 @@
         <v>1404767</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1382036</v>
+        <v>1381992</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1425517</v>
+        <v>1424418</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9197679845542984</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9048850676646309</v>
+        <v>0.904855812268106</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9333540689492495</v>
+        <v>0.9326341979327113</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>163611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04993393741010657</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>200</v>
@@ -2501,19 +2501,19 @@
         <v>211529</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06259752466297842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>362</v>
@@ -2522,19 +2522,19 @@
         <v>375140</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05636338866745972</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3112932</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3088172</v>
+        <v>3085094</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3136137</v>
+        <v>3136385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9500660625898935</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.942509254370325</v>
+        <v>0.9415698158721966</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9571479912607735</v>
+        <v>0.9572238319992804</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3097</v>
@@ -2572,19 +2572,19 @@
         <v>3167668</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3138281</v>
+        <v>3137815</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3194554</v>
+        <v>3194200</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9374024753370216</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9287061104511061</v>
+        <v>0.9285680974672272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9453590379539233</v>
+        <v>0.9452540355261605</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6149</v>
@@ -2593,19 +2593,19 @@
         <v>6280601</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6241611</v>
+        <v>6241427</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6316566</v>
+        <v>6313711</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9436366113325403</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9377784723215822</v>
+        <v>0.9377508537821524</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.949040238872306</v>
+        <v>0.9486112386539078</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>23107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15452</v>
+        <v>14795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33388</v>
+        <v>32471</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07839798671981923</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05242634573253028</v>
+        <v>0.05019870151950895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1132794551176406</v>
+        <v>0.1101689239244493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -2962,19 +2962,19 @@
         <v>37698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26771</v>
+        <v>26618</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51463</v>
+        <v>51304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1312406493827602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09320000002415969</v>
+        <v>0.09266750063084457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1791623041518149</v>
+        <v>0.1786065983562631</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -2983,19 +2983,19 @@
         <v>60805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47085</v>
+        <v>47215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79190</v>
+        <v>78605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1044791434580469</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08090366925508283</v>
+        <v>0.08112704034041449</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1360695020693315</v>
+        <v>0.1350635331294713</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>271631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261350</v>
+        <v>262267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279286</v>
+        <v>279943</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9216020132801808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8867205448823594</v>
+        <v>0.8898310760755512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9475736542674698</v>
+        <v>0.949801298480491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -3033,19 +3033,19 @@
         <v>249547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235782</v>
+        <v>235941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>260474</v>
+        <v>260627</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8687593506172397</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8208376958481848</v>
+        <v>0.8213934016437369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9067999999758402</v>
+        <v>0.9073324993691555</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>481</v>
@@ -3054,19 +3054,19 @@
         <v>521178</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>502793</v>
+        <v>503378</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>534898</v>
+        <v>534768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8955208565419531</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8639304979306683</v>
+        <v>0.8649364668705286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9190963307449171</v>
+        <v>0.9188729596595853</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>40881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29518</v>
+        <v>28927</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55943</v>
+        <v>56637</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08086780997938138</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0583896792830792</v>
+        <v>0.05722192431141063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1106622272029973</v>
+        <v>0.1120362337425294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -3179,19 +3179,19 @@
         <v>42528</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30310</v>
+        <v>30237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58556</v>
+        <v>58241</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08119600209197139</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05786954953633895</v>
+        <v>0.05773002813468673</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1117983646485648</v>
+        <v>0.1111965564494085</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -3200,19 +3200,19 @@
         <v>83408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66577</v>
+        <v>67968</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104221</v>
+        <v>103453</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08103481360871578</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06468253859602986</v>
+        <v>0.06603338216119016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1012546503889618</v>
+        <v>0.1005084210494339</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>464646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449584</v>
+        <v>448890</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476009</v>
+        <v>476600</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9191321900206186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8893377727970027</v>
+        <v>0.8879637662574706</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9416103207169207</v>
+        <v>0.9427780756885894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>442</v>
@@ -3250,19 +3250,19 @@
         <v>481237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>465209</v>
+        <v>465524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493455</v>
+        <v>493528</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9188039979080286</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8882016353514351</v>
+        <v>0.8888034435505914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9421304504636611</v>
+        <v>0.9422699718653132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -3271,19 +3271,19 @@
         <v>945884</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>925071</v>
+        <v>925839</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>962715</v>
+        <v>961324</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9189651863912842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8987453496110381</v>
+        <v>0.8994915789505661</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9353174614039703</v>
+        <v>0.9339666178388099</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>24209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15423</v>
+        <v>15410</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36995</v>
+        <v>34735</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07470780441157955</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04759595477936145</v>
+        <v>0.04755611356952805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1141643528863288</v>
+        <v>0.1071908915923441</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3396,19 +3396,19 @@
         <v>27298</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18102</v>
+        <v>18291</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38999</v>
+        <v>38669</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08004801690651736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05308165790728131</v>
+        <v>0.05363502466544078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1143591244555847</v>
+        <v>0.1133926252416793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3417,19 +3417,19 @@
         <v>51507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38143</v>
+        <v>37663</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67339</v>
+        <v>67828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07744605788435382</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05735204600239179</v>
+        <v>0.05663096865515491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1012511865992666</v>
+        <v>0.1019873016893516</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>299837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287051</v>
+        <v>289311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>308623</v>
+        <v>308636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9252921955884205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8858356471136715</v>
+        <v>0.8928091084076556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9524040452206393</v>
+        <v>0.9524438864304715</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>291</v>
@@ -3467,19 +3467,19 @@
         <v>313722</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>302021</v>
+        <v>302351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322918</v>
+        <v>322729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9199519830934827</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8856408755444153</v>
+        <v>0.8866073747583207</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9469183420927186</v>
+        <v>0.9463649753345592</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -3488,19 +3488,19 @@
         <v>613559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>597727</v>
+        <v>597238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>626923</v>
+        <v>627403</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9225539421156462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8987488134007333</v>
+        <v>0.8980126983106483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9426479539976081</v>
+        <v>0.943369031344845</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>22123</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14002</v>
+        <v>13494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32757</v>
+        <v>33492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05915613016880993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03743969222455586</v>
+        <v>0.03608088224094819</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08758935092011952</v>
+        <v>0.08955580010028251</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -3613,19 +3613,19 @@
         <v>36909</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26908</v>
+        <v>26742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50028</v>
+        <v>50345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0948934207578013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.069181218481368</v>
+        <v>0.06875438644694004</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1286220946905641</v>
+        <v>0.1294389884560971</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -3634,19 +3634,19 @@
         <v>59032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45306</v>
+        <v>44591</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77507</v>
+        <v>75156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07737536140663767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05938455000318339</v>
+        <v>0.05844675257725269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.101590564257892</v>
+        <v>0.09850881197215812</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>351859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341225</v>
+        <v>340490</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359980</v>
+        <v>360488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9408438698311901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124106490798806</v>
+        <v>0.9104441998997176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9625603077754441</v>
+        <v>0.9639191177590518</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>336</v>
@@ -3684,19 +3684,19 @@
         <v>352042</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338923</v>
+        <v>338606</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362043</v>
+        <v>362209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9051065792421987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8713779053094359</v>
+        <v>0.870561011543903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9308187815186322</v>
+        <v>0.9312456135530601</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>660</v>
@@ -3705,19 +3705,19 @@
         <v>703901</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>685426</v>
+        <v>687777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717627</v>
+        <v>718342</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9226246385933623</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8984094357421079</v>
+        <v>0.9014911880278422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9406154499968166</v>
+        <v>0.9415532474227475</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>27939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18833</v>
+        <v>18443</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39384</v>
+        <v>39542</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1314048181478384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08857752089072467</v>
+        <v>0.08674047794720423</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1852326347907328</v>
+        <v>0.1859775002792551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -3830,19 +3830,19 @@
         <v>42904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31964</v>
+        <v>32136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56640</v>
+        <v>55251</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1953836272702872</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1455621172519357</v>
+        <v>0.1463448769553898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.257932079218391</v>
+        <v>0.2516086487738087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -3851,19 +3851,19 @@
         <v>70844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56627</v>
+        <v>57999</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87818</v>
+        <v>88763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1639103175576256</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1310171054751715</v>
+        <v>0.1341912148419758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2031848618495256</v>
+        <v>0.2053714135226104</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>184679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173234</v>
+        <v>173076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193785</v>
+        <v>194175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8685951818521617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8147673652092675</v>
+        <v>0.8140224997207448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9114224791092754</v>
+        <v>0.9132595220527958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>170</v>
@@ -3901,19 +3901,19 @@
         <v>176687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>162951</v>
+        <v>164340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>187627</v>
+        <v>187455</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8046163727297128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.742067920781609</v>
+        <v>0.748391351226191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8544378827480643</v>
+        <v>0.8536551230446099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>341</v>
@@ -3922,19 +3922,19 @@
         <v>361365</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344391</v>
+        <v>343446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>375582</v>
+        <v>374210</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8360896824423745</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7968151381504748</v>
+        <v>0.7946285864773898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8689828945248286</v>
+        <v>0.8658087851580244</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>16073</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8978</v>
+        <v>9041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25312</v>
+        <v>24373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05866511055437621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03277011696830016</v>
+        <v>0.03300024429870792</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09238747879475974</v>
+        <v>0.08895790351731468</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -4047,19 +4047,19 @@
         <v>31348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21359</v>
+        <v>21350</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44282</v>
+        <v>43092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1119464989781447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07627365131243946</v>
+        <v>0.07623997383632422</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1581316655773248</v>
+        <v>0.1538840051050307</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -4068,19 +4068,19 @@
         <v>47422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35208</v>
+        <v>34880</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62079</v>
+        <v>62862</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0855967299690493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06355029960675022</v>
+        <v>0.06295904692925358</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1120530732617392</v>
+        <v>0.1134666606224185</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>257908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248669</v>
+        <v>249608</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265003</v>
+        <v>264940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9413348894456238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9076125212052401</v>
+        <v>0.9110420964826853</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9672298830316998</v>
+        <v>0.966999755701292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>240</v>
@@ -4118,19 +4118,19 @@
         <v>248683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235749</v>
+        <v>236939</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258672</v>
+        <v>258681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8880535010218552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8418683344226756</v>
+        <v>0.8461159948949695</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9237263486875606</v>
+        <v>0.9237600261636758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -4139,19 +4139,19 @@
         <v>506590</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491933</v>
+        <v>491150</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518804</v>
+        <v>519132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9144032700309507</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8879469267382608</v>
+        <v>0.8865333393775815</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9364497003932498</v>
+        <v>0.9370409530707464</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>44659</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33046</v>
+        <v>31801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60198</v>
+        <v>58957</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06738068925305066</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04985938682406572</v>
+        <v>0.04798018957720952</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09082533206598534</v>
+        <v>0.08895322017006912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -4264,19 +4264,19 @@
         <v>53643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40338</v>
+        <v>39848</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69287</v>
+        <v>69774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07731190761118872</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05813628539181309</v>
+        <v>0.0574301907066032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09985781839586624</v>
+        <v>0.1005600087308222</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -4285,19 +4285,19 @@
         <v>98302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78625</v>
+        <v>79932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121147</v>
+        <v>121653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07246000302142232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05795567859345019</v>
+        <v>0.0589191734164102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08929888168932985</v>
+        <v>0.08967225233774609</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>618129</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>602590</v>
+        <v>603831</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>629742</v>
+        <v>630987</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9326193107469494</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9091746679340144</v>
+        <v>0.9110467798299312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9501406131759342</v>
+        <v>0.9520198104227906</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>589</v>
@@ -4335,19 +4335,19 @@
         <v>640210</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>624566</v>
+        <v>624079</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>653515</v>
+        <v>654005</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9226880923888113</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9001421816041338</v>
+        <v>0.8994399912691777</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9418637146081869</v>
+        <v>0.9425698092933968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1167</v>
@@ -4356,19 +4356,19 @@
         <v>1258339</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1235494</v>
+        <v>1234988</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1278016</v>
+        <v>1276709</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9275399969785777</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9107011183106701</v>
+        <v>0.9103277476622539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9420443214065498</v>
+        <v>0.9410808265835898</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>51513</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38773</v>
+        <v>37107</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68150</v>
+        <v>67102</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06611894914861702</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04976655893493345</v>
+        <v>0.04762857595793508</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08747321114277182</v>
+        <v>0.08612822648376052</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -4481,19 +4481,19 @@
         <v>51024</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38937</v>
+        <v>38244</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66488</v>
+        <v>68156</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06193390552467665</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04726147169819742</v>
+        <v>0.04642072530549355</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08070425303793645</v>
+        <v>0.08272864536089521</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -4502,19 +4502,19 @@
         <v>102538</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82016</v>
+        <v>81369</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123657</v>
+        <v>125568</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06396800369378842</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05116533246470356</v>
+        <v>0.05076202447391446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07714312742521461</v>
+        <v>0.07833540968667038</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>727585</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>710948</v>
+        <v>711996</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>740325</v>
+        <v>741991</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.933881050851383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9125267888572284</v>
+        <v>0.9138717735162396</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9502334410650666</v>
+        <v>0.952371424042065</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>711</v>
@@ -4552,19 +4552,19 @@
         <v>772829</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>757365</v>
+        <v>755697</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>784916</v>
+        <v>785609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9380660944753233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9192957469620638</v>
+        <v>0.9172713546391048</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9527385283018026</v>
+        <v>0.9535792746945065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1383</v>
@@ -4573,19 +4573,19 @@
         <v>1500413</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1479294</v>
+        <v>1477383</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1520935</v>
+        <v>1521582</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9360319963062116</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9228568725747847</v>
+        <v>0.9216645903133296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9488346675352964</v>
+        <v>0.9492379755260856</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>250504</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07310197190093792</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>296</v>
@@ -4698,19 +4698,19 @@
         <v>323353</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09087272033551926</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>523</v>
@@ -4719,19 +4719,19 @@
         <v>573858</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08215465901507424</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3176275</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3142575</v>
+        <v>3142589</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3206454</v>
+        <v>3206130</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9268980280990621</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9170639009738218</v>
+        <v>0.9170678930032021</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.935704881011406</v>
+        <v>0.9356104644622978</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3002</v>
@@ -4769,19 +4769,19 @@
         <v>3234956</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3197069</v>
+        <v>3199534</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3266562</v>
+        <v>3269400</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9091272796644807</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.898479892445586</v>
+        <v>0.899172668881743</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9180097617814232</v>
+        <v>0.9188071749135738</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5984</v>
@@ -4790,19 +4790,19 @@
         <v>6411230</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6360738</v>
+        <v>6359883</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6454887</v>
+        <v>6458759</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9178453409849258</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9106166932250611</v>
+        <v>0.9104943710280905</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9240953278197106</v>
+        <v>0.9246496576838953</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>16543</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9796</v>
+        <v>9465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26623</v>
+        <v>26540</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0563132552981352</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03334580638445327</v>
+        <v>0.03221892135387463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09062758776324185</v>
+        <v>0.09034545575124592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5159,19 +5159,19 @@
         <v>25035</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16929</v>
+        <v>15231</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35919</v>
+        <v>37151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08671681888209942</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05863769013162598</v>
+        <v>0.05275724533263591</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1244156711689227</v>
+        <v>0.1286820252527875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -5180,19 +5180,19 @@
         <v>41578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30030</v>
+        <v>30907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56548</v>
+        <v>55624</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07138302785517675</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0515574798854471</v>
+        <v>0.05306194741066446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09708475863613343</v>
+        <v>0.09549766273431373</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>277218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267138</v>
+        <v>267221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283965</v>
+        <v>284296</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9436867447018648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.909372412236758</v>
+        <v>0.9096545442487542</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9666541936155467</v>
+        <v>0.9677810786461255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -5230,19 +5230,19 @@
         <v>263668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252784</v>
+        <v>251552</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271774</v>
+        <v>273472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9132831811179005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8755843288310772</v>
+        <v>0.8713179747472124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.941362309868374</v>
+        <v>0.9472427546673641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>505</v>
@@ -5251,19 +5251,19 @@
         <v>540886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>525916</v>
+        <v>526840</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>552434</v>
+        <v>551557</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9286169721448233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9029152413638662</v>
+        <v>0.9045023372656863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9484425201145528</v>
+        <v>0.9469380525893356</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>16757</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10304</v>
+        <v>10389</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25231</v>
+        <v>27870</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03334181495001765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02050297193486383</v>
+        <v>0.02067109468210233</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05020442124114842</v>
+        <v>0.05545377755292159</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -5376,19 +5376,19 @@
         <v>21304</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13132</v>
+        <v>13748</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32362</v>
+        <v>32371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04072735894153392</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02510572341743523</v>
+        <v>0.0262832385456154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06186819573156623</v>
+        <v>0.06188560795383641</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -5397,19 +5397,19 @@
         <v>38061</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27319</v>
+        <v>26983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52445</v>
+        <v>51880</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03710842600834911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02663510124761384</v>
+        <v>0.02630831928304543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05113322056412186</v>
+        <v>0.05058181349711244</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>485818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477344</v>
+        <v>474705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>492271</v>
+        <v>492186</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9666581850499824</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9497955787588518</v>
+        <v>0.9445462224470785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9794970280651362</v>
+        <v>0.9793289053178977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>465</v>
@@ -5447,19 +5447,19 @@
         <v>501780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>490722</v>
+        <v>490713</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>509952</v>
+        <v>509336</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9592726410584661</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9381318042684337</v>
+        <v>0.9381143920461636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9748942765825646</v>
+        <v>0.9737167614543846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -5468,19 +5468,19 @@
         <v>987598</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>973214</v>
+        <v>973779</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>998340</v>
+        <v>998676</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9628915739916509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9488667794358783</v>
+        <v>0.9494181865028876</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733648987523862</v>
+        <v>0.9736916807169546</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>5075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1753</v>
+        <v>1715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10850</v>
+        <v>10541</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01593207311945392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005503790156885608</v>
+        <v>0.005384286622248706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0340577554604631</v>
+        <v>0.03308765133602094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5593,19 +5593,19 @@
         <v>11719</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5821</v>
+        <v>6214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19630</v>
+        <v>20611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03484548093324275</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01730913050544667</v>
+        <v>0.01847787491297874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05836809615949298</v>
+        <v>0.06128716617288985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5614,19 +5614,19 @@
         <v>16794</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9670</v>
+        <v>9955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26208</v>
+        <v>26409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02564500921113046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0147669394939092</v>
+        <v>0.01520173746740869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04001944898944172</v>
+        <v>0.04032748450142488</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>313490</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307715</v>
+        <v>308024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316812</v>
+        <v>316850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9840679268805461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.965942244539537</v>
+        <v>0.9669123486639787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9944962098431148</v>
+        <v>0.9946157133777512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -5664,19 +5664,19 @@
         <v>324590</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316679</v>
+        <v>315698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>330488</v>
+        <v>330095</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9651545190667573</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9416319038405071</v>
+        <v>0.9387128338271106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9826908694945534</v>
+        <v>0.9815221250870213</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -5685,19 +5685,19 @@
         <v>638080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628666</v>
+        <v>628465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645204</v>
+        <v>644919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9743549907888696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9599805510105579</v>
+        <v>0.9596725154985751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9852330605060907</v>
+        <v>0.9847982625325913</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>30756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20757</v>
+        <v>21573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42056</v>
+        <v>43659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08313259504427599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05610454236129565</v>
+        <v>0.05831013842998599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1136769537009659</v>
+        <v>0.1180080914755363</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -5810,19 +5810,19 @@
         <v>42551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30903</v>
+        <v>30137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58573</v>
+        <v>57062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1098706225391025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0797949240070371</v>
+        <v>0.07781667278608259</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1512420310943015</v>
+        <v>0.1473380946847193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5831,19 +5831,19 @@
         <v>73307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56899</v>
+        <v>57534</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92787</v>
+        <v>92378</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09680737162078647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07513942164657955</v>
+        <v>0.07597757909970657</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1225321977223384</v>
+        <v>0.121991877122763</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>339208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>327908</v>
+        <v>326305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349207</v>
+        <v>348391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9168674049557241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8863230462990339</v>
+        <v>0.8819919085244639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9438954576387043</v>
+        <v>0.9416898615700144</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>322</v>
@@ -5881,19 +5881,19 @@
         <v>344732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328710</v>
+        <v>330221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356380</v>
+        <v>357146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8901293774608975</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8487579689056985</v>
+        <v>0.8526619053152807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9202050759929629</v>
+        <v>0.9221833272139174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>646</v>
@@ -5902,19 +5902,19 @@
         <v>683940</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664460</v>
+        <v>664869</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700348</v>
+        <v>699713</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9031926283792135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8774678022776624</v>
+        <v>0.878008122877237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9248605783534206</v>
+        <v>0.9240224209002935</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>15139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9192</v>
+        <v>8811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25448</v>
+        <v>24861</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0716720472115687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.043518561412122</v>
+        <v>0.0417150699779497</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1204815673099377</v>
+        <v>0.1176990189015946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -6027,19 +6027,19 @@
         <v>15281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9019</v>
+        <v>8688</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24259</v>
+        <v>24795</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06990772433890892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04126112771372239</v>
+        <v>0.03974690524154283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1109825914272927</v>
+        <v>0.1134346826802609</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -6048,19 +6048,19 @@
         <v>30420</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20638</v>
+        <v>21096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40706</v>
+        <v>41416</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07077476739051267</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04801671704345428</v>
+        <v>0.04908300852228478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09470751867880532</v>
+        <v>0.09635915187487179</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>196082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185773</v>
+        <v>186360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202029</v>
+        <v>202410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9283279527884313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8795184326900617</v>
+        <v>0.8823009810984052</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9564814385878779</v>
+        <v>0.9582849300220501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -6098,19 +6098,19 @@
         <v>203306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>194328</v>
+        <v>193792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209568</v>
+        <v>209899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9300922756610911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8890174085727073</v>
+        <v>0.8865653173197388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9587388722862776</v>
+        <v>0.9602530947584571</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>405</v>
@@ -6119,19 +6119,19 @@
         <v>399388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389102</v>
+        <v>388392</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409170</v>
+        <v>408712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9292252326094873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9052924813211944</v>
+        <v>0.9036408481251279</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9519832829565457</v>
+        <v>0.9509169914777149</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>22169</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14930</v>
+        <v>14688</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32842</v>
+        <v>32193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08425338205489113</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05673999837240617</v>
+        <v>0.05582048558144753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1248177809879229</v>
+        <v>0.1223506653140919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -6244,19 +6244,19 @@
         <v>25207</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16294</v>
+        <v>16569</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37251</v>
+        <v>37165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09229353169483454</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05965911227598913</v>
+        <v>0.06066714674756567</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1363939634624025</v>
+        <v>0.1360769894832528</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -6265,19 +6265,19 @@
         <v>47376</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34830</v>
+        <v>35675</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61918</v>
+        <v>63725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08834836501765217</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06495338715338957</v>
+        <v>0.06652745685056966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.115466894406593</v>
+        <v>0.1188362946508485</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>240954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230281</v>
+        <v>230930</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>248193</v>
+        <v>248435</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9157466179451089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8751822190120769</v>
+        <v>0.8776493346859076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9432600016275937</v>
+        <v>0.9441795144185522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -6315,19 +6315,19 @@
         <v>247908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235864</v>
+        <v>235950</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256821</v>
+        <v>256546</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9077064683051654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8636060365375976</v>
+        <v>0.8639230105167467</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9403408877240108</v>
+        <v>0.939332853252434</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>478</v>
@@ -6336,19 +6336,19 @@
         <v>488862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>474320</v>
+        <v>472513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501408</v>
+        <v>500563</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9116516349823478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8845331055934071</v>
+        <v>0.8811637053491517</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9350466128466105</v>
+        <v>0.9334725431494303</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>27531</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17604</v>
+        <v>18132</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39422</v>
+        <v>39297</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04193282294743843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0268123136652502</v>
+        <v>0.02761618439956162</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06004268602079946</v>
+        <v>0.05985232452196861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -6461,19 +6461,19 @@
         <v>41657</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31157</v>
+        <v>29683</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57596</v>
+        <v>56877</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06025988015033418</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04507081419398548</v>
+        <v>0.04293887806625849</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08331551031190396</v>
+        <v>0.0822762592302643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -6482,19 +6482,19 @@
         <v>69189</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54071</v>
+        <v>54031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88515</v>
+        <v>89891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05133250830884522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04011608167897952</v>
+        <v>0.04008644242053196</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06567100051000002</v>
+        <v>0.06669178865992452</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>629027</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>617136</v>
+        <v>617261</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638954</v>
+        <v>638426</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9580671770525616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9399573139792007</v>
+        <v>0.9401476754780315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9731876863347499</v>
+        <v>0.9723838156004384</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>610</v>
@@ -6532,19 +6532,19 @@
         <v>649637</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>633698</v>
+        <v>634417</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>660137</v>
+        <v>661611</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9397401198496658</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9166844896880961</v>
+        <v>0.9177237407697357</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9549291858060145</v>
+        <v>0.9570611219337416</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1165</v>
@@ -6553,19 +6553,19 @@
         <v>1278663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1259337</v>
+        <v>1257961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1293781</v>
+        <v>1293821</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9486674916911548</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9343289994900004</v>
+        <v>0.933308211340075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9598839183210205</v>
+        <v>0.9599135575794678</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>54524</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40746</v>
+        <v>41270</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>72144</v>
+        <v>72911</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07003020699213199</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05233311015631505</v>
+        <v>0.05300592441912012</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0926610223419147</v>
+        <v>0.0936462635381707</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>55</v>
@@ -6678,19 +6678,19 @@
         <v>61960</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48042</v>
+        <v>47079</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78820</v>
+        <v>78598</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07499637620499351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05815036210297658</v>
+        <v>0.05698463611973102</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09540478642775778</v>
+        <v>0.09513581767387777</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -6699,19 +6699,19 @@
         <v>116484</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98334</v>
+        <v>94336</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138476</v>
+        <v>139172</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07258691995868954</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06127703627364584</v>
+        <v>0.058785398757024</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08629105048395559</v>
+        <v>0.08672481790714495</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>724059</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>706439</v>
+        <v>705672</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>737837</v>
+        <v>737313</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.929969793007868</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9073389776580854</v>
+        <v>0.9063537364618294</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9476668898436849</v>
+        <v>0.9469940755808798</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>700</v>
@@ -6749,19 +6749,19 @@
         <v>764207</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>747347</v>
+        <v>747569</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>778125</v>
+        <v>779088</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9250036237950064</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9045952135722424</v>
+        <v>0.9048641823261223</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9418496378970235</v>
+        <v>0.9430153638802691</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1400</v>
@@ -6770,19 +6770,19 @@
         <v>1488266</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1466274</v>
+        <v>1465578</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1506416</v>
+        <v>1510414</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9274130800413104</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9137089495160443</v>
+        <v>0.9132751820928551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9387229637263541</v>
+        <v>0.9412146012429761</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>188494</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05553174074114699</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>217</v>
@@ -6895,19 +6895,19 @@
         <v>244714</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06903955462421327</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>396</v>
@@ -6916,19 +6916,19 @@
         <v>433208</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06243183534737137</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3205856</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3174274</v>
+        <v>3178125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3230126</v>
+        <v>3232508</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.944468259258853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9351638901258542</v>
+        <v>0.9362986893729343</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9516184620321007</v>
+        <v>0.9523201741805998</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3121</v>
@@ -6966,19 +6966,19 @@
         <v>3299828</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3264458</v>
+        <v>3266024</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3330897</v>
+        <v>3331453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9309604453757867</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9209816584901216</v>
+        <v>0.9214233082137552</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9397255604273174</v>
+        <v>0.9398824734547941</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6173</v>
@@ -6987,19 +6987,19 @@
         <v>6505684</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6465865</v>
+        <v>6464528</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6547936</v>
+        <v>6551519</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9375681646526286</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9318296736687415</v>
+        <v>0.9316369871687421</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9436572293765236</v>
+        <v>0.9441736536649643</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>28164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19807</v>
+        <v>19080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38586</v>
+        <v>38781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08833016266367269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06212006648798874</v>
+        <v>0.05984067965355609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1210165430094824</v>
+        <v>0.121630027714186</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -7356,19 +7356,19 @@
         <v>31844</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25603</v>
+        <v>24056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40812</v>
+        <v>39186</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1007531106025688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08100560045995302</v>
+        <v>0.0761132031226362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1291263787135735</v>
+        <v>0.1239818412977586</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -7377,19 +7377,19 @@
         <v>60008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49297</v>
+        <v>48365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73211</v>
+        <v>72860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0945143936880854</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07764462879090323</v>
+        <v>0.07617667533733938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1153098020212845</v>
+        <v>0.1147566232962371</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>290681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>280259</v>
+        <v>280064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299038</v>
+        <v>299765</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9116698373363271</v>
+        <v>0.9116698373363273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8789834569905177</v>
+        <v>0.8783699722858139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9378799335120113</v>
+        <v>0.9401593203464439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -7427,19 +7427,19 @@
         <v>284217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275249</v>
+        <v>276875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>290458</v>
+        <v>292005</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8992468893974311</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8708736212864265</v>
+        <v>0.8760181587022414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.918994399540047</v>
+        <v>0.9238867968773637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>775</v>
@@ -7448,19 +7448,19 @@
         <v>574898</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>561695</v>
+        <v>562046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585609</v>
+        <v>586541</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9054856063119145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8846901979787156</v>
+        <v>0.8852433767037629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9223553712090973</v>
+        <v>0.9238233246626605</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>90504</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72839</v>
+        <v>71844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>113320</v>
+        <v>113798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.170554460947837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1372641124049692</v>
+        <v>0.1353899879862317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2135500711218518</v>
+        <v>0.2144505059905356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -7573,19 +7573,19 @@
         <v>83225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70116</v>
+        <v>71299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97422</v>
+        <v>96887</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1522890576293823</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.128302275684797</v>
+        <v>0.1304657301364352</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.178267061306279</v>
+        <v>0.1772874008036201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -7594,19 +7594,19 @@
         <v>173729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149711</v>
+        <v>151104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201009</v>
+        <v>196945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1612873952809387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1389889167932221</v>
+        <v>0.1402822541041283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.186613726069376</v>
+        <v>0.1828403635904414</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>440143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417327</v>
+        <v>416849</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>457808</v>
+        <v>458803</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8294455390521629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7864499288781485</v>
+        <v>0.7855494940094647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8627358875950308</v>
+        <v>0.8646100120137684</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -7644,19 +7644,19 @@
         <v>463269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449072</v>
+        <v>449607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>476378</v>
+        <v>475195</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8477109423706176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8217329386937211</v>
+        <v>0.8227125991963798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8716977243152029</v>
+        <v>0.8695342698635649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>896</v>
@@ -7665,19 +7665,19 @@
         <v>903412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876132</v>
+        <v>880196</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>927430</v>
+        <v>926037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8387126047190614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8133862739306242</v>
+        <v>0.8171596364095586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8610110832067779</v>
+        <v>0.8597177458958717</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>38499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29339</v>
+        <v>28534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49439</v>
+        <v>50842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.12183549816307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09284769707359242</v>
+        <v>0.09029964286317267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1564568635855753</v>
+        <v>0.1608957492187032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -7790,19 +7790,19 @@
         <v>38808</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30235</v>
+        <v>30165</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50304</v>
+        <v>51302</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1088934922124686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08483934626593757</v>
+        <v>0.08464378995248086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.141153131889881</v>
+        <v>0.1439529723793501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -7811,19 +7811,19 @@
         <v>77307</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64034</v>
+        <v>63496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93469</v>
+        <v>92768</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1149757978267439</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0952349193861133</v>
+        <v>0.09443553559571664</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1390137629920816</v>
+        <v>0.1379708492932705</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>277494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>266554</v>
+        <v>265151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286654</v>
+        <v>287459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8781645018369301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8435431364144249</v>
+        <v>0.8391042507812965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9071523029264077</v>
+        <v>0.9097003571368273</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -7861,19 +7861,19 @@
         <v>317573</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306077</v>
+        <v>305079</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326146</v>
+        <v>326216</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8911065077875314</v>
+        <v>0.8911065077875313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.858846868110119</v>
+        <v>0.8560470276206492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9151606537340623</v>
+        <v>0.915356210047519</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>782</v>
@@ -7882,19 +7882,19 @@
         <v>595068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578906</v>
+        <v>579607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608341</v>
+        <v>608879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8850242021732562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8609862370079184</v>
+        <v>0.8620291507067296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9047650806138866</v>
+        <v>0.9055644644042834</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>25476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15013</v>
+        <v>15617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40789</v>
+        <v>41371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06827363415469073</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04023362697778063</v>
+        <v>0.04185194896601608</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1093118111958394</v>
+        <v>0.1108715332813998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -8007,19 +8007,19 @@
         <v>20067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13777</v>
+        <v>13757</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31177</v>
+        <v>30083</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0475571274326772</v>
+        <v>0.04755712743267722</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03264953676739721</v>
+        <v>0.03260163698785533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07388686606475811</v>
+        <v>0.07129276786662386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -8028,19 +8028,19 @@
         <v>45543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32383</v>
+        <v>30984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64458</v>
+        <v>62014</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05727942788920818</v>
+        <v>0.05727942788920817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04072794710384102</v>
+        <v>0.03896802339044382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.081068179309748</v>
+        <v>0.07799424727737239</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>347669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332356</v>
+        <v>331774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358132</v>
+        <v>357528</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9317263658453093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8906881888041606</v>
+        <v>0.8891284667186005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9597663730222195</v>
+        <v>0.958148051033984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -8078,19 +8078,19 @@
         <v>401894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>390784</v>
+        <v>391878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>408184</v>
+        <v>408204</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9524428725673229</v>
+        <v>0.952442872567323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9261131339352416</v>
+        <v>0.9287072321333762</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9673504632326028</v>
+        <v>0.9673983630121448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>836</v>
@@ -8099,19 +8099,19 @@
         <v>749564</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>730649</v>
+        <v>733093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>762724</v>
+        <v>764123</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9427205721107919</v>
+        <v>0.9427205721107916</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.918931820690252</v>
+        <v>0.9220057527226276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.959272052896159</v>
+        <v>0.9610319766095561</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>14133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8990</v>
+        <v>9630</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21223</v>
+        <v>20760</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06871721502535352</v>
+        <v>0.06871721502535354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04371335664583807</v>
+        <v>0.04682134559416477</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.103193313142742</v>
+        <v>0.1009397810339906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -8224,19 +8224,19 @@
         <v>19808</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14921</v>
+        <v>14897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26060</v>
+        <v>26009</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08652672132891359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06518033498510162</v>
+        <v>0.0650757684826536</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1138385311654005</v>
+        <v>0.1136159348007897</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -8245,19 +8245,19 @@
         <v>33940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26826</v>
+        <v>26248</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42116</v>
+        <v>42067</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07809842815222355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06172769258451093</v>
+        <v>0.06039912329220026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09691186061691325</v>
+        <v>0.09679962526005773</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>191532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184442</v>
+        <v>184905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196675</v>
+        <v>196035</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9312827849746463</v>
+        <v>0.9312827849746466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8968066868572583</v>
+        <v>0.8990602189660095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9562866433541619</v>
+        <v>0.9531786544058353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>446</v>
@@ -8295,19 +8295,19 @@
         <v>209110</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202858</v>
+        <v>202909</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213997</v>
+        <v>214021</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9134732786710866</v>
+        <v>0.9134732786710865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8861614688345995</v>
+        <v>0.8863840651992102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9348196650148983</v>
+        <v>0.9349242315173464</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>702</v>
@@ -8316,19 +8316,19 @@
         <v>400642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>392466</v>
+        <v>392515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407756</v>
+        <v>408334</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9219015718477763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9030881393830865</v>
+        <v>0.9032003747399423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9382723074154889</v>
+        <v>0.9396008767078</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>56508</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46076</v>
+        <v>46843</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69042</v>
+        <v>69644</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2087428883451958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1702058978825095</v>
+        <v>0.1730407149643677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2550436709326985</v>
+        <v>0.2572669894456503</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -8441,19 +8441,19 @@
         <v>51104</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41494</v>
+        <v>42332</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61551</v>
+        <v>62248</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1937576598686295</v>
+        <v>0.1937576598686294</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1573224519631912</v>
+        <v>0.160499885072085</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2333670184239738</v>
+        <v>0.2360108239729236</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -8462,19 +8462,19 @@
         <v>107612</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>93513</v>
+        <v>94279</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>123372</v>
+        <v>123571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2013478006587048</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1749680929122551</v>
+        <v>0.1764011590927344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2308362085852377</v>
+        <v>0.2312076893954947</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>214199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>201665</v>
+        <v>201063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224631</v>
+        <v>223864</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7912571116548042</v>
+        <v>0.7912571116548041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7449563290673015</v>
+        <v>0.7427330105543498</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8297941021174904</v>
+        <v>0.8269592850356323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>361</v>
@@ -8512,19 +8512,19 @@
         <v>212646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>202199</v>
+        <v>201502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222256</v>
+        <v>221418</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8062423401313707</v>
+        <v>0.8062423401313704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7666329815760264</v>
+        <v>0.7639891760270763</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8426775480368088</v>
+        <v>0.8395001149279151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>642</v>
@@ -8533,19 +8533,19 @@
         <v>426845</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>411085</v>
+        <v>410886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>440944</v>
+        <v>440178</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7986521993412951</v>
+        <v>0.7986521993412952</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7691637914147623</v>
+        <v>0.7687923106045054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8250319070877451</v>
+        <v>0.8235988409072659</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>81576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64739</v>
+        <v>65367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100621</v>
+        <v>100349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.113349943884021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08995433190809851</v>
+        <v>0.09082719155097697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1398116907083745</v>
+        <v>0.1394336419146559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>149</v>
@@ -8658,19 +8658,19 @@
         <v>109955</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93651</v>
+        <v>92306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>128968</v>
+        <v>127102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1424180467548425</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1213004819815771</v>
+        <v>0.1195580889249632</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1670445869384138</v>
+        <v>0.1646278815201591</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -8679,19 +8679,19 @@
         <v>191531</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168771</v>
+        <v>166890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>220101</v>
+        <v>218260</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1283942332406054</v>
+        <v>0.1283942332406055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1131364796164832</v>
+        <v>0.1118756851817325</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1475457910335376</v>
+        <v>0.1463119233064952</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>638111</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>619066</v>
+        <v>619338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654948</v>
+        <v>654320</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8866500561159791</v>
+        <v>0.8866500561159789</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8601883092916256</v>
+        <v>0.8605663580853443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9100456680919015</v>
+        <v>0.9091728084490233</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>811</v>
@@ -8729,19 +8729,19 @@
         <v>662102</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>643089</v>
+        <v>644955</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>678406</v>
+        <v>679751</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8575819532451574</v>
+        <v>0.8575819532451573</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8329554130615863</v>
+        <v>0.8353721184798408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8786995180184228</v>
+        <v>0.8804419110750367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1332</v>
@@ -8750,19 +8750,19 @@
         <v>1300213</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1271643</v>
+        <v>1273484</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1322973</v>
+        <v>1324854</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8716057667593944</v>
+        <v>0.8716057667593945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8524542089664625</v>
+        <v>0.8536880766935048</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8868635203835168</v>
+        <v>0.8881243148182675</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>48815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>37301</v>
+        <v>37576</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64500</v>
+        <v>64462</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06116622562388477</v>
+        <v>0.06116622562388476</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04673834092102882</v>
+        <v>0.04708404625237367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08082038563559925</v>
+        <v>0.08077247090897183</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -8875,19 +8875,19 @@
         <v>72606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>59630</v>
+        <v>59129</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87929</v>
+        <v>86199</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08733646831608577</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07172812024560662</v>
+        <v>0.0711256905871082</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1057688233705198</v>
+        <v>0.1036883789036996</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>152</v>
@@ -8896,19 +8896,19 @@
         <v>121421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>101250</v>
+        <v>102599</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140967</v>
+        <v>142431</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0745184418519014</v>
+        <v>0.07451844185190142</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06213924006024893</v>
+        <v>0.06296724912576901</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08651480697407243</v>
+        <v>0.08741298540083346</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>749257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>733572</v>
+        <v>733610</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>760771</v>
+        <v>760496</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.938833774376115</v>
+        <v>0.9388337743761153</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9191796143644003</v>
+        <v>0.9192275290910281</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9532616590789711</v>
+        <v>0.9529159537476264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>962</v>
@@ -8946,19 +8946,19 @@
         <v>758725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>743402</v>
+        <v>745132</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>771701</v>
+        <v>772202</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9126635316839142</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8942311766294799</v>
+        <v>0.8963116210963004</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9282718797543933</v>
+        <v>0.9288743094128916</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1672</v>
@@ -8967,19 +8967,19 @@
         <v>1507982</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1488436</v>
+        <v>1486972</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1528153</v>
+        <v>1526804</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9254815581480986</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9134851930259273</v>
+        <v>0.9125870145991666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9378607599397508</v>
+        <v>0.937032750874231</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>383676</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1086049704302342</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>684</v>
@@ -9092,19 +9092,19 @@
         <v>427416</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1143753991354247</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1106</v>
@@ -9113,19 +9113,19 @@
         <v>811091</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1115712248711752</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3149086</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3112747</v>
+        <v>3110065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3189508</v>
+        <v>3184063</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8913950295697659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8811086931873002</v>
+        <v>0.8803493334409803</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9028369421166647</v>
+        <v>0.901295608101007</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4683</v>
@@ -9163,19 +9163,19 @@
         <v>3309538</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3275140</v>
+        <v>3274138</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3339864</v>
+        <v>3339814</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8856246008645754</v>
+        <v>0.8856246008645753</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8764197411090699</v>
+        <v>0.8761514614140556</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8937396804342991</v>
+        <v>0.8937263735030971</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7637</v>
@@ -9184,19 +9184,19 @@
         <v>6458625</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6408463</v>
+        <v>6410034</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6504964</v>
+        <v>6510217</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8884287751288248</v>
+        <v>0.8884287751288247</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8815286395799452</v>
+        <v>0.8817447071081329</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8948030486476519</v>
+        <v>0.8955256778216643</v>
       </c>
     </row>
     <row r="30">
